--- a/Data/Offense_2018.csv.xlsx
+++ b/Data/Offense_2018.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CE1361-1BB1-4841-8AC0-208AC19B98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF61440-3317-2F4D-A47B-271D7E1DD808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40768303-FA2E-40C3-943B-75E3F058057C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{40768303-FA2E-40C3-943B-75E3F058057C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
-    <t>% of Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% of Drives resulting in Turnover</t>
-  </si>
-  <si>
     <t>Expected points contributed by all Offense</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,10 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,13 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E775D3-3198-4061-A050-4793467512FF}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -677,16 +676,16 @@
         <v>59</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -772,7 +771,7 @@
         <v>298.14</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -858,7 +857,7 @@
         <v>239.79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -944,7 +943,7 @@
         <v>237.73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>190.96</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>140.47</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>128.78</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>170.19</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>156.16</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>96.31</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>155.08000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>121.14</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>72.849999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>108.88</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>117.24</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>70.53</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>47.57</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>36.909999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>-97.45</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>-40.39</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3094,7 +3093,7 @@
         <v>-17.920000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>-34.07</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>-104.81</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>-98.17</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>-155.06</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3520,7 +3519,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3600,7 +3599,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>

--- a/Data/Offense_2018.csv.xlsx
+++ b/Data/Offense_2018.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kobe/Desktop/TouchdownProphet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\Project_3\TouchdownProphet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF61440-3317-2F4D-A47B-271D7E1DD808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CE1361-1BB1-4841-8AC0-208AC19B98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{40768303-FA2E-40C3-943B-75E3F058057C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40768303-FA2E-40C3-943B-75E3F058057C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
     <t>1st Downs by Penalty</t>
   </si>
   <si>
+    <t>% of Drives resulting in Offensive Score</t>
+  </si>
+  <si>
+    <t>% of Drives resulting in Turnover</t>
+  </si>
+  <si>
     <t>Expected points contributed by all Offense</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Offensive Score</t>
-  </si>
-  <si>
-    <t>% Drives resulting in Turnover</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,9 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,13 +594,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E775D3-3198-4061-A050-4793467512FF}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -676,16 +677,16 @@
         <v>59</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -771,7 +772,7 @@
         <v>298.14</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -857,7 +858,7 @@
         <v>239.79</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -943,7 +944,7 @@
         <v>237.73</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>190.96</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>140.47</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>128.78</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>170.19</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>156.16</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>96.31</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>155.08000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>121.14</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>72.849999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>108.88</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>117.24</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>70.53</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>47.57</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>36.909999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>-97.45</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>24.23</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>-40.39</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>-17.920000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>-34.07</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>-104.81</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>-98.17</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>-155.06</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>32</v>
@@ -3519,7 +3520,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -3599,7 +3600,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>34</v>
